--- a/ca002/CA_LOAD_THB.xlsx
+++ b/ca002/CA_LOAD_THB.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OracleSupport\KTC\Github\ktc\ca002\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="6840" windowHeight="8115"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="6840" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Base_Currency" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>BATCH_NAME</t>
   </si>
@@ -103,12 +98,6 @@
   </si>
   <si>
     <t>LINE_NO(OUT)</t>
-  </si>
-  <si>
-    <t>Journal_Header</t>
-  </si>
-  <si>
-    <t>Journal_Line</t>
   </si>
   <si>
     <t>CATEGORY_NAME</t>
@@ -211,15 +200,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,24 +221,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -297,43 +272,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -362,60 +300,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="8" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -425,24 +317,54 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -766,463 +688,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="35"/>
+      <c r="I1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="24.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:23" s="28" customFormat="1">
+      <c r="A2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21">
+        <v>42917</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11150402</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9999</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" s="28" customFormat="1">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21">
+        <v>42917</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11012001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9999</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25">
+        <v>1000</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" s="28" customFormat="1">
+      <c r="A4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="21">
+        <v>42917</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2">
+        <v>11151704</v>
+      </c>
+      <c r="L4" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25">
+        <v>9000</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="5" spans="1:23" s="28" customFormat="1">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="21">
+        <v>42917</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
+        <v>11151705</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25">
+        <v>500</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="21" t="s">
+    </row>
+    <row r="6" spans="1:23" s="28" customFormat="1">
+      <c r="A6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="21">
+        <v>42917</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2">
+        <v>11012001</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>9500</v>
+      </c>
+      <c r="R6" s="25"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
     </row>
-    <row r="3" spans="1:23" s="8" customFormat="1">
-      <c r="A3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12">
-        <v>42917</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="15">
-        <v>11150402</v>
-      </c>
-      <c r="L3" s="15">
-        <v>9999</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>1000</v>
-      </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" s="8" customFormat="1">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12">
-        <v>42917</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="15">
-        <v>11012001</v>
-      </c>
-      <c r="L4" s="15">
-        <v>9999</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16">
-        <v>1000</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="5" spans="1:23" s="8" customFormat="1">
-      <c r="A5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12">
-        <v>42917</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="19">
-        <v>11151704</v>
-      </c>
-      <c r="L5" s="19">
-        <v>9999</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16">
-        <v>9000</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="8" customFormat="1">
-      <c r="A6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12">
-        <v>42917</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="19">
-        <v>11151705</v>
-      </c>
-      <c r="L6" s="19">
-        <v>9999</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16">
-        <v>500</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="8" customFormat="1">
-      <c r="A7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12">
-        <v>42917</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="19">
-        <v>11012001</v>
-      </c>
-      <c r="L7" s="19">
-        <v>9999</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>9500</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
+    <row r="13" spans="1:23" ht="17.25">
+      <c r="H13" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
